--- a/developFiles/excel文件模板.xlsx
+++ b/developFiles/excel文件模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\JavaProjects\LaboratoryManagementSystem\developFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781C6CE-EFC3-4F32-823B-76E118401B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A552BE1-7104-4C61-8701-D31DF32344E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1890" yWindow="2580" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="3765" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,18 +64,6 @@
   </si>
   <si>
     <t>学生模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,7 +401,7 @@
     <col min="5" max="5" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -423,20 +411,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -449,20 +428,11 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -475,20 +445,11 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -504,7 +465,7 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
